--- a/datamares/OLR/OLR_datamares_fisheries2.xlsx
+++ b/datamares/OLR/OLR_datamares_fisheries2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="0" windowWidth="7890" windowHeight="7380" tabRatio="363"/>
+    <workbookView xWindow="9300" yWindow="0" windowWidth="7890" windowHeight="7380" tabRatio="356"/>
   </bookViews>
   <sheets>
     <sheet name="Item description" sheetId="9" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="854">
   <si>
     <t>text</t>
   </si>
@@ -2212,12 +2212,6 @@
     <t>Software used: Microsoft Excel; Matlab. Coordinate system: UTM WGS 1984.</t>
   </si>
   <si>
-    <t>EMBARGO DATE</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>f_cp_jacks.xlsx</t>
   </si>
   <si>
@@ -2423,15 +2417,6 @@
   </si>
   <si>
     <t>CONAPESCA catch data | Gulf corvina</t>
-  </si>
-  <si>
-    <t>2018-06-30</t>
-  </si>
-  <si>
-    <t>2017-01-01</t>
-  </si>
-  <si>
-    <t>2020-01-01</t>
   </si>
   <si>
     <t>f_ug_acoustics_corvina_length.xlsx</t>
@@ -2555,9 +2540,6 @@
   </si>
   <si>
     <t>López-Sagástegui, Catalina</t>
-  </si>
-  <si>
-    <t>2017-07-01</t>
   </si>
   <si>
     <t>Data collected with acoustic transects inside and outside of Cabo Pulmo National Park. The analysis methods allowed us to estimate the number and size of the fish that were surveyed during the field campaign.</t>
@@ -4028,43 +4010,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD18"/>
+  <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="3" customWidth="1"/>
-    <col min="7" max="8" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.5703125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="21" style="3" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="39.140625" style="24" customWidth="1"/>
-    <col min="19" max="19" width="39.140625" style="27" customWidth="1"/>
-    <col min="20" max="21" width="39.140625" style="24" customWidth="1"/>
-    <col min="22" max="22" width="36.28515625" style="24" customWidth="1"/>
-    <col min="23" max="23" width="34.28515625" style="24" customWidth="1"/>
-    <col min="24" max="24" width="35.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="42.85546875" style="3" customWidth="1"/>
-    <col min="27" max="27" width="22.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="54.28515625" style="3" customWidth="1"/>
-    <col min="29" max="29" width="58.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="3" customWidth="1"/>
+    <col min="6" max="7" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="21" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.140625" style="24" customWidth="1"/>
+    <col min="18" max="18" width="39.140625" style="27" customWidth="1"/>
+    <col min="19" max="20" width="39.140625" style="24" customWidth="1"/>
+    <col min="21" max="21" width="36.28515625" style="24" customWidth="1"/>
+    <col min="22" max="22" width="34.28515625" style="24" customWidth="1"/>
+    <col min="23" max="23" width="35.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="42.85546875" style="3" customWidth="1"/>
+    <col min="26" max="26" width="22.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="54.28515625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="58.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>338</v>
       </c>
@@ -4072,88 +4053,85 @@
         <v>486</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>726</v>
+        <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="15" t="s">
         <v>1</v>
       </c>
+      <c r="I1" s="16" t="s">
+        <v>284</v>
+      </c>
       <c r="J1" s="16" t="s">
-        <v>284</v>
+        <v>132</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="L1" s="16" t="s">
         <v>105</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>105</v>
+        <v>450</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>489</v>
+        <v>6</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="R1" s="26" t="s">
         <v>352</v>
       </c>
+      <c r="S1" s="21" t="s">
+        <v>4</v>
+      </c>
       <c r="T1" s="21" t="s">
-        <v>4</v>
+        <v>354</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>354</v>
+        <v>507</v>
       </c>
       <c r="V1" s="21" t="s">
-        <v>507</v>
-      </c>
-      <c r="W1" s="21" t="s">
         <v>506</v>
       </c>
+      <c r="W1" s="16" t="s">
+        <v>460</v>
+      </c>
       <c r="X1" s="16" t="s">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="Y1" s="16" t="s">
-        <v>510</v>
+        <v>455</v>
       </c>
       <c r="Z1" s="16" t="s">
-        <v>455</v>
+        <v>10</v>
       </c>
       <c r="AA1" s="16" t="s">
-        <v>10</v>
+        <v>483</v>
       </c>
       <c r="AB1" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="AC1" s="16" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:29" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>621</v>
       </c>
@@ -4161,80 +4139,77 @@
         <v>485</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>727</v>
+        <v>696</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>696</v>
+        <v>403</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>403</v>
+        <v>473</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>473</v>
+        <v>358</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>358</v>
+        <v>433</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>433</v>
+        <v>637</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>630</v>
-      </c>
-      <c r="K2" s="17" t="s">
         <v>635</v>
       </c>
-      <c r="L2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17" t="s">
+        <v>623</v>
+      </c>
       <c r="M2" s="17" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>632</v>
-      </c>
-      <c r="Q2" s="17" t="s">
         <v>633</v>
       </c>
-      <c r="R2" s="22" t="s">
-        <v>800</v>
-      </c>
-      <c r="S2" s="27"/>
-      <c r="T2" s="22" t="s">
+      <c r="Q2" s="22" t="s">
+        <v>795</v>
+      </c>
+      <c r="R2" s="27"/>
+      <c r="S2" s="22" t="s">
         <v>629</v>
       </c>
-      <c r="U2" s="23" t="s">
+      <c r="T2" s="23" t="s">
         <v>700</v>
       </c>
+      <c r="U2" s="22" t="s">
+        <v>701</v>
+      </c>
       <c r="V2" s="22" t="s">
-        <v>701</v>
-      </c>
-      <c r="W2" s="22" t="s">
         <v>641</v>
       </c>
-      <c r="X2" s="17" t="s">
-        <v>836</v>
-      </c>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17" t="s">
-        <v>846</v>
-      </c>
-      <c r="AA2" s="17"/>
+      <c r="W2" s="17" t="s">
+        <v>830</v>
+      </c>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17" t="s">
+        <v>840</v>
+      </c>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="19" t="s">
+        <v>634</v>
+      </c>
       <c r="AB2" s="19" t="s">
-        <v>634</v>
-      </c>
-      <c r="AC2" s="19" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>622</v>
       </c>
@@ -4242,81 +4217,78 @@
         <v>485</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>727</v>
+        <v>697</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>697</v>
+        <v>403</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>403</v>
+        <v>473</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>473</v>
+        <v>358</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>358</v>
+        <v>433</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>433</v>
+        <v>713</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>713</v>
+        <v>638</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>627</v>
+        <v>651</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>651</v>
+        <v>623</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>626</v>
+        <v>702</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>703</v>
-      </c>
-      <c r="Q3" s="17" t="s">
         <v>704</v>
       </c>
-      <c r="R3" s="22" t="s">
-        <v>816</v>
-      </c>
-      <c r="T3" s="22" t="s">
+      <c r="Q3" s="22" t="s">
+        <v>811</v>
+      </c>
+      <c r="S3" s="22" t="s">
         <v>710</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="T3" s="23" t="s">
         <v>705</v>
       </c>
-      <c r="V3" s="22" t="s">
+      <c r="U3" s="22" t="s">
         <v>706</v>
       </c>
-      <c r="W3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="17" t="s">
+        <v>708</v>
+      </c>
       <c r="X3" s="17" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="Y3" s="17" t="s">
-        <v>709</v>
-      </c>
-      <c r="Z3" s="17" t="s">
-        <v>847</v>
-      </c>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17" t="s">
+        <v>841</v>
+      </c>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17" t="s">
         <v>639</v>
       </c>
-      <c r="AC3" s="19" t="s">
+      <c r="AB3" s="19" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>625</v>
       </c>
@@ -4324,77 +4296,74 @@
         <v>485</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>833</v>
+        <v>726</v>
       </c>
       <c r="D4" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>727</v>
+      </c>
+      <c r="I4" s="17" t="s">
         <v>728</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="I4" s="17" t="s">
+      <c r="J4" s="17" t="s">
+        <v>728</v>
+      </c>
+      <c r="K4" s="17" t="s">
         <v>729</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="L4" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="O4" s="17" t="s">
         <v>730</v>
       </c>
-      <c r="K4" s="17" t="s">
-        <v>730</v>
-      </c>
-      <c r="L4" s="17" t="s">
+      <c r="P4" s="17" t="s">
         <v>731</v>
       </c>
-      <c r="M4" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17" t="s">
-        <v>807</v>
-      </c>
-      <c r="P4" s="17" t="s">
+      <c r="Q4" s="22"/>
+      <c r="R4" s="27" t="s">
+        <v>812</v>
+      </c>
+      <c r="S4" s="22" t="s">
+        <v>828</v>
+      </c>
+      <c r="T4" s="23" t="s">
         <v>732</v>
       </c>
-      <c r="Q4" s="17" t="s">
+      <c r="U4" s="22" t="s">
         <v>733</v>
       </c>
-      <c r="R4" s="22"/>
-      <c r="S4" s="27" t="s">
-        <v>817</v>
-      </c>
-      <c r="T4" s="22" t="s">
-        <v>834</v>
-      </c>
-      <c r="U4" s="23" t="s">
+      <c r="V4" s="22" t="s">
         <v>734</v>
       </c>
-      <c r="V4" s="22" t="s">
+      <c r="W4" s="17"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="17" t="s">
+        <v>842</v>
+      </c>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="19" t="s">
         <v>735</v>
       </c>
-      <c r="W4" s="22" t="s">
-        <v>736</v>
-      </c>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="17" t="s">
-        <v>848</v>
-      </c>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="19" t="s">
-        <v>737</v>
-      </c>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="18"/>
-    </row>
-    <row r="5" spans="1:30" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="18"/>
+    </row>
+    <row r="5" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>628</v>
       </c>
@@ -4402,77 +4371,74 @@
         <v>485</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>727</v>
+        <v>698</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>698</v>
+        <v>403</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>403</v>
+        <v>473</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>473</v>
+        <v>358</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>358</v>
+        <v>433</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>433</v>
+        <v>711</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>711</v>
+        <v>630</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>630</v>
-      </c>
-      <c r="K5" s="17" t="s">
         <v>635</v>
       </c>
-      <c r="L5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17" t="s">
+        <v>623</v>
+      </c>
       <c r="M5" s="17" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>645</v>
-      </c>
-      <c r="Q5" s="17" t="s">
         <v>646</v>
       </c>
-      <c r="R5" s="22" t="s">
+      <c r="Q5" s="22" t="s">
         <v>712</v>
       </c>
+      <c r="S5" s="22" t="s">
+        <v>642</v>
+      </c>
       <c r="T5" s="22" t="s">
-        <v>642</v>
+        <v>700</v>
       </c>
       <c r="U5" s="22" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="V5" s="22" t="s">
-        <v>707</v>
-      </c>
-      <c r="W5" s="22" t="s">
         <v>647</v>
       </c>
-      <c r="X5" s="17" t="s">
+      <c r="W5" s="17" t="s">
         <v>643</v>
       </c>
-      <c r="Y5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17" t="s">
+        <v>843</v>
+      </c>
       <c r="Z5" s="17" t="s">
-        <v>849</v>
-      </c>
-      <c r="AA5" s="17" t="s">
-        <v>815</v>
-      </c>
+        <v>810</v>
+      </c>
+      <c r="AA5" s="17"/>
       <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-    </row>
-    <row r="6" spans="1:30" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:29" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>655</v>
       </c>
@@ -4480,535 +4446,514 @@
         <v>485</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>727</v>
+        <v>699</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>699</v>
+        <v>403</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>403</v>
+        <v>473</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>473</v>
+        <v>358</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>358</v>
+        <v>433</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>433</v>
+        <v>648</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>651</v>
+        <v>623</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>626</v>
+        <v>652</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>653</v>
-      </c>
-      <c r="Q6" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="R6" s="22" t="s">
-        <v>818</v>
-      </c>
-      <c r="S6" s="27"/>
+      <c r="Q6" s="22" t="s">
+        <v>813</v>
+      </c>
+      <c r="R6" s="27"/>
+      <c r="S6" s="22" t="s">
+        <v>718</v>
+      </c>
       <c r="T6" s="22" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="U6" s="22" t="s">
-        <v>700</v>
-      </c>
-      <c r="V6" s="22" t="s">
         <v>706</v>
       </c>
-      <c r="W6" s="25" t="s">
+      <c r="V6" s="25" t="s">
         <v>714</v>
       </c>
-      <c r="X6" s="17" t="s">
+      <c r="W6" s="17" t="s">
         <v>649</v>
       </c>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17" t="s">
-        <v>850</v>
-      </c>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17" t="s">
+        <v>844</v>
+      </c>
+      <c r="Z6" s="17"/>
       <c r="AA6" s="17"/>
       <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6"/>
-    </row>
-    <row r="7" spans="1:30" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC6"/>
+    </row>
+    <row r="7" spans="1:29" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>661</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>727</v>
+      <c r="C7" s="3" t="s">
+        <v>663</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>663</v>
+        <v>403</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>403</v>
+        <v>473</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>473</v>
+        <v>358</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>358</v>
+        <v>433</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="I7" s="3" t="s">
         <v>656</v>
       </c>
+      <c r="I7" s="17" t="s">
+        <v>630</v>
+      </c>
       <c r="J7" s="17" t="s">
-        <v>630</v>
-      </c>
-      <c r="K7" s="17" t="s">
         <v>635</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="17" t="s">
+      <c r="K7" s="3"/>
+      <c r="L7" s="17" t="s">
         <v>623</v>
       </c>
+      <c r="M7" s="3" t="s">
+        <v>626</v>
+      </c>
       <c r="N7" s="3" t="s">
-        <v>626</v>
+        <v>659</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="Q7" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="R7" s="24" t="s">
-        <v>819</v>
-      </c>
-      <c r="S7" s="27"/>
-      <c r="T7" s="24" t="s">
+      <c r="Q7" s="24" t="s">
+        <v>814</v>
+      </c>
+      <c r="R7" s="27"/>
+      <c r="S7" s="24" t="s">
         <v>657</v>
       </c>
+      <c r="T7" s="22" t="s">
+        <v>700</v>
+      </c>
       <c r="U7" s="22" t="s">
-        <v>700</v>
-      </c>
-      <c r="V7" s="22" t="s">
         <v>706</v>
       </c>
-      <c r="W7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="3" t="s">
+        <v>658</v>
+      </c>
       <c r="X7" s="3" t="s">
-        <v>658</v>
+        <v>839</v>
       </c>
       <c r="Y7" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="Z7" s="3" t="s">
-        <v>851</v>
-      </c>
+      <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7"/>
-    </row>
-    <row r="8" spans="1:30" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC7"/>
+    </row>
+    <row r="8" spans="1:29" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>671</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>727</v>
+      <c r="C8" s="3" t="s">
+        <v>664</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>664</v>
+        <v>403</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>403</v>
+        <v>473</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>473</v>
+        <v>358</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>358</v>
+        <v>433</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>433</v>
+        <v>662</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="M8" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="L8" s="17" t="s">
         <v>623</v>
       </c>
+      <c r="M8" s="3" t="s">
+        <v>626</v>
+      </c>
       <c r="N8" s="3" t="s">
-        <v>626</v>
+        <v>803</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>808</v>
+        <v>668</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="Q8" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="R8" s="24" t="s">
-        <v>820</v>
-      </c>
-      <c r="S8" s="27"/>
+      <c r="Q8" s="24" t="s">
+        <v>815</v>
+      </c>
+      <c r="R8" s="27"/>
+      <c r="S8" s="24" t="s">
+        <v>665</v>
+      </c>
       <c r="T8" s="24" t="s">
-        <v>665</v>
-      </c>
-      <c r="U8" s="24" t="s">
         <v>715</v>
       </c>
-      <c r="V8" s="22" t="s">
+      <c r="U8" s="22" t="s">
         <v>725</v>
       </c>
-      <c r="W8" s="24" t="s">
+      <c r="V8" s="24" t="s">
         <v>670</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="AA8" s="3"/>
+      <c r="W8" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3" t="s">
+        <v>678</v>
+      </c>
       <c r="AB8" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="AC8" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="AD8"/>
-    </row>
-    <row r="9" spans="1:30" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC8"/>
+    </row>
+    <row r="9" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>796</v>
+      <c r="C9" s="3" t="s">
+        <v>794</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>799</v>
+        <v>403</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>403</v>
+        <v>473</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>473</v>
+        <v>358</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>358</v>
+        <v>433</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="I9" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="J9" s="17" t="s">
-        <v>638</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="24" t="s">
+        <v>729</v>
+      </c>
+      <c r="R9" s="27" t="s">
+        <v>816</v>
+      </c>
+      <c r="S9" s="24" t="s">
         <v>740</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="T9" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="R9" s="24" t="s">
-        <v>731</v>
-      </c>
-      <c r="S9" s="27" t="s">
-        <v>821</v>
-      </c>
-      <c r="T9" s="24" t="s">
+      <c r="U9" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="V9" s="24" t="s">
         <v>742</v>
       </c>
-      <c r="U9" s="24" t="s">
-        <v>743</v>
-      </c>
-      <c r="V9" s="24" t="s">
-        <v>803</v>
-      </c>
-      <c r="W9" s="24" t="s">
-        <v>744</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="Y9" s="17" t="s">
-        <v>805</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W9" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="X9" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>797</v>
+      <c r="C10" s="3" t="s">
+        <v>676</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>676</v>
+        <v>403</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>403</v>
+        <v>473</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>473</v>
+        <v>358</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>358</v>
+        <v>433</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>433</v>
+        <v>672</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>822</v>
+        <v>817</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>635</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>651</v>
-      </c>
-      <c r="M10" s="17" t="s">
         <v>623</v>
       </c>
+      <c r="N10" s="3" t="s">
+        <v>673</v>
+      </c>
       <c r="O10" s="3" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="Q10" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="S10" s="27" t="s">
-        <v>826</v>
+      <c r="R10" s="27" t="s">
+        <v>821</v>
+      </c>
+      <c r="S10" s="24" t="s">
+        <v>717</v>
       </c>
       <c r="T10" s="24" t="s">
-        <v>717</v>
-      </c>
-      <c r="U10" s="24" t="s">
         <v>719</v>
       </c>
-      <c r="V10" s="22" t="s">
+      <c r="U10" s="22" t="s">
         <v>724</v>
       </c>
-      <c r="W10" s="24" t="s">
+      <c r="V10" s="24" t="s">
         <v>716</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="AD10" s="18"/>
-    </row>
-    <row r="11" spans="1:30" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W10" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="AC10" s="18"/>
+    </row>
+    <row r="11" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>485</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>797</v>
+        <v>760</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="M11" s="17"/>
+      <c r="N11" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="P11" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="R11" s="27" t="s">
         <v>822</v>
       </c>
-      <c r="K11" s="17" t="s">
-        <v>635</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>651</v>
-      </c>
-      <c r="M11" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="P11" s="3" t="s">
+      <c r="S11" s="24" t="s">
         <v>765</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="T11" s="24" t="s">
         <v>766</v>
       </c>
-      <c r="S11" s="27" t="s">
-        <v>827</v>
-      </c>
-      <c r="T11" s="24" t="s">
+      <c r="U11" s="22" t="s">
         <v>767</v>
       </c>
-      <c r="U11" s="24" t="s">
+      <c r="V11" s="24" t="s">
         <v>768</v>
       </c>
-      <c r="V11" s="22" t="s">
-        <v>769</v>
-      </c>
-      <c r="W11" s="24" t="s">
-        <v>770</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>855</v>
-      </c>
-      <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W11" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>485</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>797</v>
+        <v>770</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="M12" s="17"/>
+      <c r="N12" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="I12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>651</v>
-      </c>
-      <c r="M12" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="R12" s="27" t="s">
+        <v>823</v>
+      </c>
+      <c r="S12" s="24" t="s">
+        <v>748</v>
+      </c>
+      <c r="T12" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="U12" s="22" t="s">
+        <v>767</v>
+      </c>
+      <c r="V12" s="24" t="s">
         <v>775</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="W12" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="AA12" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="S12" s="27" t="s">
-        <v>828</v>
-      </c>
-      <c r="T12" s="24" t="s">
-        <v>750</v>
-      </c>
-      <c r="U12" s="24" t="s">
-        <v>801</v>
-      </c>
-      <c r="V12" s="22" t="s">
-        <v>769</v>
-      </c>
-      <c r="W12" s="24" t="s">
+      <c r="AB12" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="AC12" s="3" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>679</v>
       </c>
@@ -5016,70 +4961,67 @@
         <v>485</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>797</v>
+        <v>779</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="N13" s="20" t="s">
         <v>781</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="I13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="M13" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="O13" s="20" t="s">
+      <c r="P13" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="R13" s="27" t="s">
+        <v>819</v>
+      </c>
+      <c r="S13" s="24" t="s">
+        <v>748</v>
+      </c>
+      <c r="T13" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="U13" s="22" t="s">
+        <v>767</v>
+      </c>
+      <c r="V13" s="24" t="s">
         <v>784</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="W13" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="S13" s="27" t="s">
-        <v>824</v>
-      </c>
-      <c r="T13" s="24" t="s">
-        <v>750</v>
-      </c>
-      <c r="U13" s="24" t="s">
-        <v>801</v>
-      </c>
-      <c r="V13" s="22" t="s">
-        <v>769</v>
-      </c>
-      <c r="W13" s="24" t="s">
-        <v>786</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="Z13" s="3" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y13" s="3" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>687</v>
       </c>
@@ -5087,365 +5029,350 @@
         <v>485</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>635</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="R14" s="27" t="s">
+        <v>824</v>
+      </c>
+      <c r="S14" s="24" t="s">
+        <v>748</v>
+      </c>
+      <c r="T14" s="24" t="s">
+        <v>766</v>
+      </c>
+      <c r="U14" s="22" t="s">
+        <v>767</v>
+      </c>
+      <c r="V14" s="24" t="s">
         <v>792</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="S14" s="27" t="s">
-        <v>829</v>
-      </c>
-      <c r="T14" s="24" t="s">
-        <v>750</v>
-      </c>
-      <c r="U14" s="24" t="s">
-        <v>768</v>
-      </c>
-      <c r="V14" s="22" t="s">
-        <v>769</v>
-      </c>
-      <c r="W14" s="24" t="s">
-        <v>794</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y14" s="3" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>797</v>
+      <c r="C15" s="3" t="s">
+        <v>743</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="I15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="O15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="R15" s="27" t="s">
+        <v>825</v>
+      </c>
+      <c r="S15" s="24" t="s">
         <v>748</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="T15" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="V15" s="24" t="s">
         <v>749</v>
       </c>
-      <c r="S15" s="27" t="s">
-        <v>830</v>
-      </c>
-      <c r="T15" s="24" t="s">
-        <v>750</v>
-      </c>
-      <c r="U15" s="24" t="s">
-        <v>801</v>
-      </c>
-      <c r="W15" s="24" t="s">
-        <v>751</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W15" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>798</v>
+      <c r="C16" s="3" t="s">
+        <v>750</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="I16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>823</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="Q16" s="24"/>
+      <c r="R16" s="27" t="s">
+        <v>820</v>
+      </c>
+      <c r="S16" s="24" t="s">
         <v>755</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="T16" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="U16" s="24" t="s">
+        <v>799</v>
+      </c>
+      <c r="V16" s="24" t="s">
         <v>756</v>
       </c>
-      <c r="R16" s="24"/>
-      <c r="S16" s="27" t="s">
-        <v>825</v>
-      </c>
-      <c r="T16" s="24" t="s">
+      <c r="W16" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="U16" s="24" t="s">
-        <v>802</v>
-      </c>
-      <c r="V16" s="24" t="s">
-        <v>804</v>
-      </c>
-      <c r="W16" s="24" t="s">
+      <c r="AB16" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="X16" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="AC16" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="1:28" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>727</v>
+      <c r="C17" s="3" t="s">
+        <v>685</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>685</v>
+        <v>403</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>403</v>
+        <v>473</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>473</v>
+        <v>358</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>358</v>
+        <v>433</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>433</v>
+        <v>680</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="K17" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="J17" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="M17" s="17" t="s">
+      <c r="L17" s="17" t="s">
         <v>623</v>
       </c>
+      <c r="M17" s="3" t="s">
+        <v>626</v>
+      </c>
       <c r="N17" s="3" t="s">
-        <v>626</v>
+        <v>682</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="Q17" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="R17" s="24" t="s">
-        <v>831</v>
+      <c r="Q17" s="24" t="s">
+        <v>826</v>
+      </c>
+      <c r="S17" s="24" t="s">
+        <v>681</v>
       </c>
       <c r="T17" s="24" t="s">
-        <v>681</v>
-      </c>
-      <c r="U17" s="24" t="s">
         <v>720</v>
       </c>
-      <c r="V17" s="22" t="s">
+      <c r="U17" s="22" t="s">
         <v>723</v>
       </c>
-      <c r="W17" s="24" t="s">
+      <c r="V17" s="24" t="s">
         <v>686</v>
       </c>
+      <c r="W17" s="3" t="s">
+        <v>837</v>
+      </c>
       <c r="X17" s="3" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>727</v>
+      <c r="C18" s="3" t="s">
+        <v>692</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>692</v>
+        <v>403</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>403</v>
+        <v>473</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>473</v>
+        <v>358</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>358</v>
+        <v>433</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="I18" s="3" t="s">
         <v>688</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>627</v>
       </c>
       <c r="J18" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="K18" s="17" t="s">
-        <v>627</v>
-      </c>
-      <c r="M18" s="17" t="s">
+      <c r="L18" s="17" t="s">
         <v>623</v>
       </c>
+      <c r="M18" s="3" t="s">
+        <v>626</v>
+      </c>
       <c r="N18" s="3" t="s">
-        <v>626</v>
+        <v>689</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="Q18" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="R18" s="24" t="s">
-        <v>813</v>
+      <c r="Q18" s="24" t="s">
+        <v>808</v>
+      </c>
+      <c r="S18" s="24" t="s">
+        <v>721</v>
       </c>
       <c r="T18" s="24" t="s">
-        <v>721</v>
-      </c>
-      <c r="U18" s="24" t="s">
         <v>722</v>
       </c>
-      <c r="V18" s="22" t="s">
+      <c r="U18" s="22" t="s">
         <v>723</v>
       </c>
-      <c r="W18" s="24" t="s">
+      <c r="V18" s="24" t="s">
         <v>693</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>844</v>
+      <c r="W18" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>829</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>835</v>
+        <v>694</v>
       </c>
       <c r="AB18" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="AC18" s="3" t="s">
         <v>695</v>
       </c>
     </row>
@@ -5608,7 +5535,7 @@
   </conditionalFormatting>
   <dataValidations xWindow="1495" yWindow="249" count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Please select a value from the drop-down list" prompt="Please select a header from the drop-down list" sqref="G1:H1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Please select a value from the drop-down list" prompt="Please select a header from the drop-down list" sqref="F1:G1"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5619,31 +5546,31 @@
           <x14:formula1>
             <xm:f>'Select-a-header values'!$A$1:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>I1</xm:sqref>
+          <xm:sqref>H1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$D$1:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>N1:O1</xm:sqref>
+          <xm:sqref>M1:N1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$I$1:$I$12</xm:f>
           </x14:formula1>
-          <xm:sqref>AB1:AC1</xm:sqref>
+          <xm:sqref>AA1:AB1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list">
           <x14:formula1>
             <xm:f>'CV values'!$B$2:$B$21</xm:f>
           </x14:formula1>
-          <xm:sqref>E19:E1048576 E10:E14 E16 E6:E8</xm:sqref>
+          <xm:sqref>D19:D1048576 D10:D14 D16 D6:D8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list">
           <x14:formula1>
             <xm:f>'CV values'!$C$2:$C$15</xm:f>
           </x14:formula1>
-          <xm:sqref>F19:F1048576 F10:F14 F16 F6:F8</xm:sqref>
+          <xm:sqref>E19:E1048576 E10:E14 E16 E6:E8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list">
           <x14:formula1>
@@ -5655,61 +5582,61 @@
           <x14:formula1>
             <xm:f>'CV values'!$D$2:$D$60</xm:f>
           </x14:formula1>
-          <xm:sqref>G19:H1048576 G10:H14 G16:H16 G6:H8</xm:sqref>
+          <xm:sqref>F19:G1048576 F10:G14 F16:G16 F6:G8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Please select a value from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'[1]CV values'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:H2</xm:sqref>
+          <xm:sqref>F2:G2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list">
           <x14:formula1>
             <xm:f>'[1]CV values'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B3 E2:F2</xm:sqref>
+          <xm:sqref>B2:B3 D2:E2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$G$1:$G$13</xm:f>
           </x14:formula1>
-          <xm:sqref>X1:AA1</xm:sqref>
+          <xm:sqref>W1:Z1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list">
           <x14:formula1>
             <xm:f>'CV values'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B17:B18 E5:F5 B5 B15 E15:F15 E17:F18</xm:sqref>
+          <xm:sqref>B17:B18 D5:E5 B5 B15 D15:E15 D17:E18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Please select a value from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'CV values'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:H5 G15:H15 G17:H18</xm:sqref>
+          <xm:sqref>F5:G5 F15:G15 F17:G18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list">
           <x14:formula1>
             <xm:f>'[2]CV values'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B4 E9:F9 E3:F4 B9</xm:sqref>
+          <xm:sqref>B4 D9:E9 D3:E4 B9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Please select a value from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'[2]CV values'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:H4 G9:H9</xm:sqref>
+          <xm:sqref>F3:G4 F9:G9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$E$1:$E$30</xm:f>
           </x14:formula1>
-          <xm:sqref>R1:W1</xm:sqref>
+          <xm:sqref>Q1:V1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$B$1:$B$233</xm:f>
           </x14:formula1>
-          <xm:sqref>J1:K1</xm:sqref>
+          <xm:sqref>I1:J1</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/datamares/OLR/OLR_datamares_fisheries2.xlsx
+++ b/datamares/OLR/OLR_datamares_fisheries2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="845">
   <si>
     <t>text</t>
   </si>
@@ -2053,9 +2053,6 @@
   </si>
   <si>
     <t>2015-04-30</t>
-  </si>
-  <si>
-    <t>f_ug_biological.xlsx</t>
   </si>
   <si>
     <t>Los efectos a corto plazo de las reservas marinas sobre poblaciones de garropas y cabrillas @ http://dx.doi.org/10.13022/M3ZW2S</t>
@@ -2212,9 +2209,6 @@
     <t>Software used: Microsoft Excel; Matlab. Coordinate system: UTM WGS 1984.</t>
   </si>
   <si>
-    <t>f_cp_jacks.xlsx</t>
-  </si>
-  <si>
     <t>Acoustic survey of fish in Cabo Pulmo National Park</t>
   </si>
   <si>
@@ -2261,9 +2255,6 @@
   </si>
   <si>
     <t>Echosounder surveys. This dataset includes the mean lengths of Gulf Corvina per individual echosounder transect across three survey days.</t>
-  </si>
-  <si>
-    <t>f_ug_cooperatives.xlsx</t>
   </si>
   <si>
     <t>Cooperatives in the Upper Gulf of California</t>
@@ -2285,9 +2276,6 @@
     <t>Avisos de arrib, catch landings cooperatives San Felipe</t>
   </si>
   <si>
-    <t>f_ug_grupo_tecnico_curvina.xlsx</t>
-  </si>
-  <si>
     <t>Technical group of corvina</t>
   </si>
   <si>
@@ -2316,9 +2304,6 @@
     <t>008</t>
   </si>
   <si>
-    <t>f_ug_buyers_aldaz.xlsx</t>
-  </si>
-  <si>
     <t>Buyer's dataset in the Upper Gulf of California (Aldaz)</t>
   </si>
   <si>
@@ -2347,9 +2332,6 @@
     <t>009</t>
   </si>
   <si>
-    <t>f_ug_buyers_ochoa.xlsx</t>
-  </si>
-  <si>
     <t>Buyer's dataset in the Upper Gulf of California (Ochoa)</t>
   </si>
   <si>
@@ -2374,9 +2356,6 @@
     <t>010</t>
   </si>
   <si>
-    <t>f_ug_conapesca_2000_2008.xslx</t>
-  </si>
-  <si>
     <t>Upper Gulf of California fisheries statistics (2000 - 2008)</t>
   </si>
   <si>
@@ -2398,9 +2377,6 @@
     <t>011</t>
   </si>
   <si>
-    <t>f_ug_conapesca.xslx</t>
-  </si>
-  <si>
     <t>Upper Gulf of California fisheries statistics</t>
   </si>
   <si>
@@ -2417,9 +2393,6 @@
   </si>
   <si>
     <t>CONAPESCA catch data | Gulf corvina</t>
-  </si>
-  <si>
-    <t>f_ug_acoustics_corvina_length.xlsx</t>
   </si>
   <si>
     <t>Cota-Nieto, Juan Jose; Jimenez-Esquivel, Victoria; Mascareñas-Osorio, Ismael (2016): Bahia Magdalena: habitat diversity sustains fisheries. In dataMares Project: Fisheries. UC San Diego Library Digital Collections.</t>
@@ -4012,8 +3985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4139,7 +4112,7 @@
         <v>485</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>403</v>
@@ -4179,27 +4152,27 @@
         <v>633</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="R2" s="27"/>
       <c r="S2" s="22" t="s">
         <v>629</v>
       </c>
       <c r="T2" s="23" t="s">
+        <v>699</v>
+      </c>
+      <c r="U2" s="22" t="s">
         <v>700</v>
-      </c>
-      <c r="U2" s="22" t="s">
-        <v>701</v>
       </c>
       <c r="V2" s="22" t="s">
         <v>641</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="X2" s="17"/>
       <c r="Y2" s="17" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="Z2" s="17"/>
       <c r="AA2" s="19" t="s">
@@ -4217,7 +4190,7 @@
         <v>485</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>403</v>
@@ -4232,7 +4205,7 @@
         <v>433</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I3" s="17" t="s">
         <v>638</v>
@@ -4250,35 +4223,35 @@
         <v>626</v>
       </c>
       <c r="N3" s="17" t="s">
+        <v>701</v>
+      </c>
+      <c r="O3" s="17" t="s">
         <v>702</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="P3" s="17" t="s">
         <v>703</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="Q3" s="22" t="s">
+        <v>802</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>709</v>
+      </c>
+      <c r="T3" s="23" t="s">
         <v>704</v>
       </c>
-      <c r="Q3" s="22" t="s">
-        <v>811</v>
-      </c>
-      <c r="S3" s="22" t="s">
-        <v>710</v>
-      </c>
-      <c r="T3" s="23" t="s">
+      <c r="U3" s="22" t="s">
         <v>705</v>
-      </c>
-      <c r="U3" s="22" t="s">
-        <v>706</v>
       </c>
       <c r="V3" s="22"/>
       <c r="W3" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="X3" s="17" t="s">
         <v>708</v>
       </c>
-      <c r="X3" s="17" t="s">
-        <v>709</v>
-      </c>
       <c r="Y3" s="17" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="Z3" s="17"/>
       <c r="AA3" s="17" t="s">
@@ -4295,15 +4268,9 @@
       <c r="B4" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>726</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>473</v>
-      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="17" t="s">
         <v>358</v>
       </c>
@@ -4311,54 +4278,54 @@
         <v>433</v>
       </c>
       <c r="H4" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="K4" s="17" t="s">
         <v>727</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>728</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>728</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>729</v>
       </c>
       <c r="L4" s="17" t="s">
         <v>623</v>
       </c>
       <c r="M4" s="17"/>
       <c r="N4" s="17" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="Q4" s="22"/>
       <c r="R4" s="27" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="S4" s="22" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="T4" s="23" t="s">
+        <v>730</v>
+      </c>
+      <c r="U4" s="22" t="s">
+        <v>731</v>
+      </c>
+      <c r="V4" s="22" t="s">
         <v>732</v>
-      </c>
-      <c r="U4" s="22" t="s">
-        <v>733</v>
-      </c>
-      <c r="V4" s="22" t="s">
-        <v>734</v>
       </c>
       <c r="W4" s="17"/>
       <c r="X4" s="18"/>
       <c r="Y4" s="17" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="Z4" s="17"/>
       <c r="AA4" s="19" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="AB4" s="19"/>
       <c r="AC4" s="18"/>
@@ -4371,7 +4338,7 @@
         <v>485</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>403</v>
@@ -4386,7 +4353,7 @@
         <v>433</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>630</v>
@@ -4411,16 +4378,16 @@
         <v>646</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="S5" s="22" t="s">
         <v>642</v>
       </c>
       <c r="T5" s="22" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="U5" s="22" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="V5" s="22" t="s">
         <v>647</v>
@@ -4430,10 +4397,10 @@
       </c>
       <c r="X5" s="17"/>
       <c r="Y5" s="17" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="Z5" s="17" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="AA5" s="17"/>
       <c r="AB5" s="17"/>
@@ -4446,7 +4413,7 @@
         <v>485</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>403</v>
@@ -4488,27 +4455,27 @@
         <v>654</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="R6" s="27"/>
       <c r="S6" s="22" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="T6" s="22" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="U6" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="V6" s="25" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="W6" s="17" t="s">
         <v>649</v>
       </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="17" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="Z6" s="17"/>
       <c r="AA6" s="17"/>
@@ -4563,27 +4530,27 @@
         <v>624</v>
       </c>
       <c r="Q7" s="24" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="R7" s="27"/>
       <c r="S7" s="24" t="s">
         <v>657</v>
       </c>
       <c r="T7" s="22" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="U7" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="V7" s="24"/>
       <c r="W7" s="3" t="s">
         <v>658</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
@@ -4622,7 +4589,7 @@
         <v>667</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="L8" s="17" t="s">
         <v>623</v>
@@ -4631,7 +4598,7 @@
         <v>626</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>668</v>
@@ -4640,53 +4607,44 @@
         <v>669</v>
       </c>
       <c r="Q8" s="24" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="R8" s="27"/>
       <c r="S8" s="24" t="s">
         <v>665</v>
       </c>
       <c r="T8" s="24" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="U8" s="22" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="V8" s="24" t="s">
         <v>670</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="X8" s="3"/>
       <c r="Y8" s="3" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AC8"/>
     </row>
     <row r="9" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>473</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>358</v>
       </c>
@@ -4694,7 +4652,7 @@
         <v>433</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>638</v>
@@ -4703,58 +4661,49 @@
         <v>623</v>
       </c>
       <c r="N9" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="Q9" s="24" t="s">
+        <v>727</v>
+      </c>
+      <c r="R9" s="27" t="s">
+        <v>807</v>
+      </c>
+      <c r="S9" s="24" t="s">
         <v>738</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="T9" s="24" t="s">
         <v>739</v>
       </c>
-      <c r="Q9" s="24" t="s">
-        <v>729</v>
-      </c>
-      <c r="R9" s="27" t="s">
-        <v>816</v>
-      </c>
-      <c r="S9" s="24" t="s">
+      <c r="U9" s="24" t="s">
+        <v>789</v>
+      </c>
+      <c r="V9" s="24" t="s">
         <v>740</v>
       </c>
-      <c r="T9" s="24" t="s">
-        <v>741</v>
-      </c>
-      <c r="U9" s="24" t="s">
-        <v>798</v>
-      </c>
-      <c r="V9" s="24" t="s">
-        <v>742</v>
-      </c>
       <c r="W9" s="3" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="X9" s="17" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>473</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>358</v>
       </c>
@@ -4765,7 +4714,7 @@
         <v>672</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="J10" s="17" t="s">
         <v>635</v>
@@ -4786,44 +4735,35 @@
         <v>675</v>
       </c>
       <c r="R10" s="27" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="S10" s="24" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="T10" s="24" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="U10" s="22" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="V10" s="24" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="AC10" s="18"/>
     </row>
     <row r="11" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>473</v>
-      </c>
       <c r="F11" s="3" t="s">
         <v>358</v>
       </c>
@@ -4831,10 +4771,10 @@
         <v>433</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="J11" s="17" t="s">
         <v>635</v>
@@ -4847,53 +4787,44 @@
       </c>
       <c r="M11" s="17"/>
       <c r="N11" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="R11" s="27" t="s">
+        <v>813</v>
+      </c>
+      <c r="S11" s="24" t="s">
+        <v>760</v>
+      </c>
+      <c r="T11" s="24" t="s">
+        <v>761</v>
+      </c>
+      <c r="U11" s="22" t="s">
         <v>762</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="V11" s="24" t="s">
         <v>763</v>
       </c>
-      <c r="P11" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="R11" s="27" t="s">
-        <v>822</v>
-      </c>
-      <c r="S11" s="24" t="s">
-        <v>765</v>
-      </c>
-      <c r="T11" s="24" t="s">
-        <v>766</v>
-      </c>
-      <c r="U11" s="22" t="s">
-        <v>767</v>
-      </c>
-      <c r="V11" s="24" t="s">
-        <v>768</v>
-      </c>
       <c r="W11" s="3" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="AC11" s="3"/>
     </row>
     <row r="12" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>473</v>
-      </c>
       <c r="F12" s="3" t="s">
         <v>358</v>
       </c>
@@ -4901,13 +4832,13 @@
         <v>433</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="K12" s="17" t="s">
         <v>651</v>
@@ -4917,58 +4848,49 @@
       </c>
       <c r="M12" s="17"/>
       <c r="N12" s="3" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="R12" s="27" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="S12" s="24" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="T12" s="24" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="U12" s="22" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="V12" s="24" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>779</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>473</v>
-      </c>
       <c r="F13" s="3" t="s">
         <v>358</v>
       </c>
@@ -4976,13 +4898,13 @@
         <v>433</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>651</v>
@@ -4991,52 +4913,43 @@
         <v>623</v>
       </c>
       <c r="N13" s="20" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="R13" s="27" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="S13" s="24" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="T13" s="24" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="U13" s="22" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="V13" s="24" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>473</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>358</v>
       </c>
@@ -5044,10 +4957,10 @@
         <v>433</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>635</v>
@@ -5056,52 +4969,43 @@
         <v>623</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="R14" s="27" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="S14" s="24" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="T14" s="24" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="U14" s="22" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="V14" s="24" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>473</v>
-      </c>
       <c r="F15" s="3" t="s">
         <v>358</v>
       </c>
@@ -5109,64 +5013,58 @@
         <v>433</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="L15" s="17" t="s">
         <v>623</v>
       </c>
       <c r="N15" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="R15" s="27" t="s">
+        <v>816</v>
+      </c>
+      <c r="S15" s="24" t="s">
         <v>745</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="T15" s="24" t="s">
+        <v>787</v>
+      </c>
+      <c r="V15" s="24" t="s">
         <v>746</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="R15" s="27" t="s">
-        <v>825</v>
-      </c>
-      <c r="S15" s="24" t="s">
-        <v>748</v>
-      </c>
-      <c r="T15" s="24" t="s">
-        <v>796</v>
-      </c>
-      <c r="V15" s="24" t="s">
-        <v>749</v>
-      </c>
       <c r="W15" s="3" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>473</v>
-      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
         <v>358</v>
       </c>
@@ -5174,13 +5072,13 @@
         <v>433</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="17" t="s">
@@ -5188,55 +5086,55 @@
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="Q16" s="24"/>
       <c r="R16" s="27" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="S16" s="24" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="T16" s="24" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="U16" s="24" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="V16" s="24" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="X16" s="3"/>
       <c r="Y16" s="3" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="AB16" s="3" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="AC16" s="3"/>
     </row>
     <row r="17" spans="1:28" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>485</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>403</v>
@@ -5251,10 +5149,10 @@
         <v>433</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>627</v>
@@ -5269,48 +5167,48 @@
         <v>626</v>
       </c>
       <c r="N17" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="O17" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>684</v>
-      </c>
       <c r="Q17" s="24" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="S17" s="24" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="T17" s="24" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="U17" s="22" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="V17" s="24" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>485</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>403</v>
@@ -5325,7 +5223,7 @@
         <v>433</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>627</v>
@@ -5340,40 +5238,40 @@
         <v>626</v>
       </c>
       <c r="N18" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>691</v>
-      </c>
       <c r="Q18" s="24" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="S18" s="24" t="s">
+        <v>720</v>
+      </c>
+      <c r="T18" s="24" t="s">
         <v>721</v>
       </c>
-      <c r="T18" s="24" t="s">
+      <c r="U18" s="22" t="s">
         <v>722</v>
       </c>
-      <c r="U18" s="22" t="s">
-        <v>723</v>
-      </c>
       <c r="V18" s="24" t="s">
+        <v>692</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="AA18" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="AA18" s="3" t="s">
+      <c r="AB18" s="3" t="s">
         <v>694</v>
-      </c>
-      <c r="AB18" s="3" t="s">
-        <v>695</v>
       </c>
     </row>
   </sheetData>

--- a/datamares/OLR/OLR_datamares_fisheries2.xlsx
+++ b/datamares/OLR/OLR_datamares_fisheries2.xlsx
@@ -1905,9 +1905,6 @@
     <t>003</t>
   </si>
   <si>
-    <t>2016</t>
-  </si>
-  <si>
     <t>Giron-Nava, Alfredo</t>
   </si>
   <si>
@@ -2161,9 +2158,6 @@
   </si>
   <si>
     <t>Fisheries Monitoring Project La Paz (Baja California Sur, Mexico)</t>
-  </si>
-  <si>
-    <t>Cota-Nieto, Juan Jose; Jimenez-Esquivel, Victoria (2016): Fisheries Monitoring Project La Paz (Baja California Sur, Mexico). In dataMares Project: Fisheries. UC San Diego Library Digital Collections.</t>
   </si>
   <si>
     <t>Seasonal residency of Gulf Grouper within Cabo Pulmo National Park</t>
@@ -2395,9 +2389,6 @@
     <t>CONAPESCA catch data | Gulf corvina</t>
   </si>
   <si>
-    <t>Cota-Nieto, Juan Jose; Jimenez-Esquivel, Victoria; Mascareñas-Osorio, Ismael (2016): Bahia Magdalena: habitat diversity sustains fisheries. In dataMares Project: Fisheries. UC San Diego Library Digital Collections.</t>
-  </si>
-  <si>
     <t>The data described here have been embargoed until 2017-01-01. Inquiries should be directed to Ismael Mascareñas (ismael.mascarenas@gocmarineprogram.org)</t>
   </si>
   <si>
@@ -2432,9 +2423,6 @@
   </si>
   <si>
     <t>017</t>
-  </si>
-  <si>
-    <t>Giron-Nava, Alfredo; Aburto-Oropeza, Octavio (2016): Global Fisheries Supply Index. In dataMares Project: Fisheries. UC San Diego Library Digital Collections.</t>
   </si>
   <si>
     <r>
@@ -2464,21 +2452,9 @@
     <t>Hermanos Calderon</t>
   </si>
   <si>
-    <t>Rowell, Timothy J (2016): Seasonal residency of Gulf Grouper within Cabo Pulmo National Park. In dataMares Project: Fisheries. UC San Diego Library Digital Collections.</t>
-  </si>
-  <si>
     <t>Egerton, Jack (20##): Acoustic survey of fish in Cabo Pulmo National Park. In dataMares Project: Fisheries. UC San Diego Library Digital Collections.</t>
   </si>
   <si>
-    <t>Gulf of California Marine Program (2016): Pacific trackers and biological monitoring. In dataMares Project: Fisheries. UC San Diego Library Digital Collections.</t>
-  </si>
-  <si>
-    <t>Giron-Nava, Alfredo; Aburto-Oropeza, Octavio (2016): Characterization of coastal fisheries in Punta Abreojos, Pacific Coast of the Peninsula of Baja California Sur, Mexico. In dataMares Project: Fisheries. UC San Diego Library Digital Collections.</t>
-  </si>
-  <si>
-    <t>Villaseñor-Derbez, Juan Carlos; Hernández-Velasco, Arturo; Erauskin, Maite; Fulton, Stuart; Cota-Nieto, Juan José; Torre-Cosio, Jorge; Herzka-Llona, Sharon; Aburto-Oropeza, Octavio (2016): Marine Reserves Project (COBI): groupers in Bahia Magdalena. In dataMares Project: Fisheries. UC San Diego Library Digital Collections.</t>
-  </si>
-  <si>
     <t>Rowell, Timothy J; Erisman, Brad (20##): Echosounder surveys reveal that small fish escape from the Gulf Corvina fishery. In dataMares Project: Fisheries. UC San Diego Library Digital Collections.</t>
   </si>
   <si>
@@ -2509,9 +2485,6 @@
     <t>Mascareñas-Osorio, Ismael; Aburto-Oropeza, Octavio; López-Sagástegui, Catalina (20##): Cooperatives in the Upper Gulf of California. In dataMares Project: Fisheries. UC San Diego Library Digital Collections.</t>
   </si>
   <si>
-    <t>López-Sagástegui, Catalina; Aburto-Oropeza, Octavio (2016): Citizen Science Program (Trackers) Upper Gulf of California. In dataMares Project: Fisheries. UC San Diego Library Digital Collections.</t>
-  </si>
-  <si>
     <t>López-Sagástegui, Catalina</t>
   </si>
   <si>
@@ -2591,6 +2564,33 @@
   </si>
   <si>
     <t>Upper Gulf of California (Mexico) | San Felipe (Mexico) | Zanjon (Mexico) | Golfo de Santa Clara (Mexico) | Upper Gulf of California (Mexico)</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>Cota-Nieto, Juan Jose; Jimenez-Esquivel, Victoria; Mascareñas-Osorio, Ismael (2017): Bahia Magdalena: habitat diversity sustains fisheries. In dataMares Project: Fisheries. UC San Diego Library Digital Collections.</t>
+  </si>
+  <si>
+    <t>Rowell, Timothy J (2017): Seasonal residency of Gulf Grouper within Cabo Pulmo National Park. In dataMares Project: Fisheries. UC San Diego Library Digital Collections.</t>
+  </si>
+  <si>
+    <t>Cota-Nieto, Juan Jose; Jimenez-Esquivel, Victoria (2017): Fisheries Monitoring Project La Paz (Baja California Sur, Mexico). In dataMares Project: Fisheries. UC San Diego Library Digital Collections.</t>
+  </si>
+  <si>
+    <t>Gulf of California Marine Program (2017): Pacific trackers and biological monitoring. In dataMares Project: Fisheries. UC San Diego Library Digital Collections.</t>
+  </si>
+  <si>
+    <t>Giron-Nava, Alfredo; Aburto-Oropeza, Octavio (2017): Characterization of coastal fisheries in Punta Abreojos, Pacific Coast of the Peninsula of Baja California Sur, Mexico. In dataMares Project: Fisheries. UC San Diego Library Digital Collections.</t>
+  </si>
+  <si>
+    <t>Villaseñor-Derbez, Juan Carlos; Hernández-Velasco, Arturo; Erauskin, Maite; Fulton, Stuart; Cota-Nieto, Juan José; Torre-Cosio, Jorge; Herzka-Llona, Sharon; Aburto-Oropeza, Octavio (2017): Marine Reserves Project (COBI): groupers in Bahia Magdalena. In dataMares Project: Fisheries. UC San Diego Library Digital Collections.</t>
+  </si>
+  <si>
+    <t>López-Sagástegui, Catalina; Aburto-Oropeza, Octavio (2017): Citizen Science Program (Trackers) Upper Gulf of California. In dataMares Project: Fisheries. UC San Diego Library Digital Collections.</t>
+  </si>
+  <si>
+    <t>Giron-Nava, Alfredo; Aburto-Oropeza, Octavio (2017): Global Fisheries Supply Index. In dataMares Project: Fisheries. UC San Diego Library Digital Collections.</t>
   </si>
 </sst>
 </file>
@@ -3985,8 +3985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="I17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4112,7 +4112,7 @@
         <v>485</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>403</v>
@@ -4127,59 +4127,59 @@
         <v>433</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K2" s="17"/>
       <c r="L2" s="17" t="s">
         <v>623</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>626</v>
+        <v>836</v>
       </c>
       <c r="N2" s="17" t="s">
+        <v>630</v>
+      </c>
+      <c r="O2" s="17" t="s">
         <v>631</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="P2" s="17" t="s">
         <v>632</v>
       </c>
-      <c r="P2" s="17" t="s">
-        <v>633</v>
-      </c>
       <c r="Q2" s="22" t="s">
-        <v>786</v>
+        <v>837</v>
       </c>
       <c r="R2" s="27"/>
       <c r="S2" s="22" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="T2" s="23" t="s">
+        <v>698</v>
+      </c>
+      <c r="U2" s="22" t="s">
         <v>699</v>
       </c>
-      <c r="U2" s="22" t="s">
-        <v>700</v>
-      </c>
       <c r="V2" s="22" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="X2" s="17"/>
       <c r="Y2" s="17" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="Z2" s="17"/>
       <c r="AA2" s="19" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AB2" s="19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4190,7 +4190,7 @@
         <v>485</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>403</v>
@@ -4205,60 +4205,60 @@
         <v>433</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L3" s="17" t="s">
         <v>623</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>626</v>
+        <v>836</v>
       </c>
       <c r="N3" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="O3" s="17" t="s">
         <v>701</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="P3" s="17" t="s">
         <v>702</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="Q3" s="22" t="s">
+        <v>838</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>708</v>
+      </c>
+      <c r="T3" s="23" t="s">
         <v>703</v>
       </c>
-      <c r="Q3" s="22" t="s">
-        <v>802</v>
-      </c>
-      <c r="S3" s="22" t="s">
-        <v>709</v>
-      </c>
-      <c r="T3" s="23" t="s">
+      <c r="U3" s="22" t="s">
         <v>704</v>
-      </c>
-      <c r="U3" s="22" t="s">
-        <v>705</v>
       </c>
       <c r="V3" s="22"/>
       <c r="W3" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="X3" s="17" t="s">
         <v>707</v>
       </c>
-      <c r="X3" s="17" t="s">
-        <v>708</v>
-      </c>
       <c r="Y3" s="17" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="Z3" s="17"/>
       <c r="AA3" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="AB3" s="19" t="s">
         <v>639</v>
-      </c>
-      <c r="AB3" s="19" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4278,67 +4278,67 @@
         <v>433</v>
       </c>
       <c r="H4" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="K4" s="17" t="s">
         <v>725</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>726</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>726</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>727</v>
       </c>
       <c r="L4" s="17" t="s">
         <v>623</v>
       </c>
       <c r="M4" s="17"/>
       <c r="N4" s="17" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="Q4" s="22"/>
       <c r="R4" s="27" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="S4" s="22" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="T4" s="23" t="s">
+        <v>728</v>
+      </c>
+      <c r="U4" s="22" t="s">
+        <v>729</v>
+      </c>
+      <c r="V4" s="22" t="s">
         <v>730</v>
-      </c>
-      <c r="U4" s="22" t="s">
-        <v>731</v>
-      </c>
-      <c r="V4" s="22" t="s">
-        <v>732</v>
       </c>
       <c r="W4" s="17"/>
       <c r="X4" s="18"/>
       <c r="Y4" s="17" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="Z4" s="17"/>
       <c r="AA4" s="19" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="AB4" s="19"/>
       <c r="AC4" s="18"/>
     </row>
     <row r="5" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>485</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>403</v>
@@ -4353,67 +4353,67 @@
         <v>433</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K5" s="17"/>
       <c r="L5" s="17" t="s">
         <v>623</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>626</v>
+        <v>836</v>
       </c>
       <c r="N5" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="O5" s="17" t="s">
         <v>644</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="P5" s="17" t="s">
         <v>645</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="Q5" s="22" t="s">
+        <v>839</v>
+      </c>
+      <c r="S5" s="22" t="s">
+        <v>641</v>
+      </c>
+      <c r="T5" s="22" t="s">
+        <v>698</v>
+      </c>
+      <c r="U5" s="22" t="s">
+        <v>705</v>
+      </c>
+      <c r="V5" s="22" t="s">
         <v>646</v>
       </c>
-      <c r="Q5" s="22" t="s">
-        <v>711</v>
-      </c>
-      <c r="S5" s="22" t="s">
+      <c r="W5" s="17" t="s">
         <v>642</v>
-      </c>
-      <c r="T5" s="22" t="s">
-        <v>699</v>
-      </c>
-      <c r="U5" s="22" t="s">
-        <v>706</v>
-      </c>
-      <c r="V5" s="22" t="s">
-        <v>647</v>
-      </c>
-      <c r="W5" s="17" t="s">
-        <v>643</v>
       </c>
       <c r="X5" s="17"/>
       <c r="Y5" s="17" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="Z5" s="17" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="AA5" s="17"/>
       <c r="AB5" s="17"/>
     </row>
     <row r="6" spans="1:29" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>485</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>403</v>
@@ -4428,54 +4428,54 @@
         <v>433</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I6" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="K6" s="17" t="s">
         <v>650</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>635</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>651</v>
       </c>
       <c r="L6" s="17" t="s">
         <v>623</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>626</v>
+        <v>836</v>
       </c>
       <c r="N6" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="O6" s="17" t="s">
         <v>652</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="P6" s="17" t="s">
         <v>653</v>
       </c>
-      <c r="P6" s="17" t="s">
-        <v>654</v>
-      </c>
       <c r="Q6" s="22" t="s">
-        <v>804</v>
+        <v>840</v>
       </c>
       <c r="R6" s="27"/>
       <c r="S6" s="22" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="T6" s="22" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="U6" s="22" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="V6" s="25" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="W6" s="17" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="17" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="Z6" s="17"/>
       <c r="AA6" s="17"/>
@@ -4484,13 +4484,13 @@
     </row>
     <row r="7" spans="1:29" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>485</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>403</v>
@@ -4505,52 +4505,52 @@
         <v>433</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="17" t="s">
         <v>623</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>626</v>
+      <c r="M7" s="17" t="s">
+        <v>836</v>
       </c>
       <c r="N7" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>659</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>660</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>624</v>
       </c>
       <c r="Q7" s="24" t="s">
-        <v>805</v>
+        <v>841</v>
       </c>
       <c r="R7" s="27"/>
       <c r="S7" s="24" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="T7" s="22" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="U7" s="22" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="V7" s="24"/>
       <c r="W7" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
@@ -4559,13 +4559,13 @@
     </row>
     <row r="8" spans="1:29" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>485</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>403</v>
@@ -4580,67 +4580,67 @@
         <v>433</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>667</v>
-      </c>
       <c r="K8" s="3" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="L8" s="17" t="s">
         <v>623</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>626</v>
+      <c r="M8" s="17" t="s">
+        <v>836</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="O8" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>669</v>
-      </c>
       <c r="Q8" s="24" t="s">
-        <v>806</v>
+        <v>842</v>
       </c>
       <c r="R8" s="27"/>
       <c r="S8" s="24" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="T8" s="24" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="U8" s="22" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="V8" s="24" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="X8" s="3"/>
       <c r="Y8" s="3" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AC8"/>
     </row>
     <row r="9" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>485</v>
@@ -4652,54 +4652,54 @@
         <v>433</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L9" s="17" t="s">
         <v>623</v>
       </c>
       <c r="N9" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="Q9" s="24" t="s">
+        <v>725</v>
+      </c>
+      <c r="R9" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="S9" s="24" t="s">
         <v>736</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="T9" s="24" t="s">
         <v>737</v>
       </c>
-      <c r="Q9" s="24" t="s">
-        <v>727</v>
-      </c>
-      <c r="R9" s="27" t="s">
-        <v>807</v>
-      </c>
-      <c r="S9" s="24" t="s">
+      <c r="U9" s="24" t="s">
+        <v>786</v>
+      </c>
+      <c r="V9" s="24" t="s">
         <v>738</v>
       </c>
-      <c r="T9" s="24" t="s">
-        <v>739</v>
-      </c>
-      <c r="U9" s="24" t="s">
-        <v>789</v>
-      </c>
-      <c r="V9" s="24" t="s">
-        <v>740</v>
-      </c>
       <c r="W9" s="3" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="X9" s="17" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>485</v>
@@ -4711,55 +4711,55 @@
         <v>433</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L10" s="17" t="s">
         <v>623</v>
       </c>
       <c r="N10" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>675</v>
-      </c>
       <c r="R10" s="27" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="S10" s="24" t="s">
+        <v>714</v>
+      </c>
+      <c r="T10" s="24" t="s">
         <v>716</v>
       </c>
-      <c r="T10" s="24" t="s">
-        <v>718</v>
-      </c>
       <c r="U10" s="22" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="V10" s="24" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="AC10" s="18"/>
     </row>
     <row r="11" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>485</v>
@@ -4771,56 +4771,56 @@
         <v>433</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L11" s="17" t="s">
         <v>623</v>
       </c>
       <c r="M11" s="17"/>
       <c r="N11" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="R11" s="27" t="s">
+        <v>805</v>
+      </c>
+      <c r="S11" s="24" t="s">
         <v>758</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="T11" s="24" t="s">
         <v>759</v>
       </c>
-      <c r="R11" s="27" t="s">
-        <v>813</v>
-      </c>
-      <c r="S11" s="24" t="s">
+      <c r="U11" s="22" t="s">
         <v>760</v>
       </c>
-      <c r="T11" s="24" t="s">
+      <c r="V11" s="24" t="s">
         <v>761</v>
       </c>
-      <c r="U11" s="22" t="s">
-        <v>762</v>
-      </c>
-      <c r="V11" s="24" t="s">
-        <v>763</v>
-      </c>
       <c r="W11" s="3" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="AC11" s="3"/>
     </row>
     <row r="12" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>485</v>
@@ -4832,61 +4832,61 @@
         <v>433</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L12" s="17" t="s">
         <v>623</v>
       </c>
       <c r="M12" s="17"/>
       <c r="N12" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="R12" s="27" t="s">
+        <v>806</v>
+      </c>
+      <c r="S12" s="24" t="s">
+        <v>743</v>
+      </c>
+      <c r="T12" s="24" t="s">
+        <v>784</v>
+      </c>
+      <c r="U12" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="V12" s="24" t="s">
         <v>767</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="W12" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="AA12" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="R12" s="27" t="s">
-        <v>814</v>
-      </c>
-      <c r="S12" s="24" t="s">
-        <v>745</v>
-      </c>
-      <c r="T12" s="24" t="s">
-        <v>787</v>
-      </c>
-      <c r="U12" s="22" t="s">
-        <v>762</v>
-      </c>
-      <c r="V12" s="24" t="s">
+      <c r="AB12" s="3" t="s">
         <v>769</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>485</v>
@@ -4898,54 +4898,54 @@
         <v>433</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L13" s="17" t="s">
         <v>623</v>
       </c>
       <c r="N13" s="20" t="s">
+        <v>772</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="P13" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="R13" s="27" t="s">
+        <v>802</v>
+      </c>
+      <c r="S13" s="24" t="s">
+        <v>743</v>
+      </c>
+      <c r="T13" s="24" t="s">
+        <v>784</v>
+      </c>
+      <c r="U13" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="V13" s="24" t="s">
         <v>775</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="W13" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="R13" s="27" t="s">
-        <v>810</v>
-      </c>
-      <c r="S13" s="24" t="s">
-        <v>745</v>
-      </c>
-      <c r="T13" s="24" t="s">
-        <v>787</v>
-      </c>
-      <c r="U13" s="22" t="s">
-        <v>762</v>
-      </c>
-      <c r="V13" s="24" t="s">
-        <v>777</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>778</v>
-      </c>
       <c r="Y13" s="3" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>485</v>
@@ -4957,51 +4957,51 @@
         <v>433</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L14" s="17" t="s">
         <v>623</v>
       </c>
       <c r="N14" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="R14" s="27" t="s">
+        <v>807</v>
+      </c>
+      <c r="S14" s="24" t="s">
+        <v>743</v>
+      </c>
+      <c r="T14" s="24" t="s">
+        <v>759</v>
+      </c>
+      <c r="U14" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="V14" s="24" t="s">
         <v>782</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="R14" s="27" t="s">
-        <v>815</v>
-      </c>
-      <c r="S14" s="24" t="s">
-        <v>745</v>
-      </c>
-      <c r="T14" s="24" t="s">
-        <v>761</v>
-      </c>
-      <c r="U14" s="22" t="s">
-        <v>762</v>
-      </c>
-      <c r="V14" s="24" t="s">
-        <v>784</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>785</v>
-      </c>
       <c r="Y14" s="3" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>485</v>
@@ -5013,51 +5013,51 @@
         <v>433</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="L15" s="17" t="s">
         <v>623</v>
       </c>
       <c r="N15" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="R15" s="27" t="s">
+        <v>808</v>
+      </c>
+      <c r="S15" s="24" t="s">
         <v>743</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="T15" s="24" t="s">
+        <v>784</v>
+      </c>
+      <c r="V15" s="24" t="s">
         <v>744</v>
       </c>
-      <c r="R15" s="27" t="s">
-        <v>816</v>
-      </c>
-      <c r="S15" s="24" t="s">
-        <v>745</v>
-      </c>
-      <c r="T15" s="24" t="s">
-        <v>787</v>
-      </c>
-      <c r="V15" s="24" t="s">
-        <v>746</v>
-      </c>
       <c r="W15" s="3" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>485</v>
@@ -5072,13 +5072,13 @@
         <v>433</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="17" t="s">
@@ -5086,55 +5086,55 @@
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="P16" s="3" t="s">
         <v>748</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>750</v>
       </c>
       <c r="Q16" s="24"/>
       <c r="R16" s="27" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="S16" s="24" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="T16" s="24" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="U16" s="24" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="V16" s="24" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="X16" s="3"/>
       <c r="Y16" s="3" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="AB16" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="AC16" s="3"/>
     </row>
     <row r="17" spans="1:28" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>485</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>403</v>
@@ -5149,66 +5149,66 @@
         <v>433</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L17" s="17" t="s">
         <v>623</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>626</v>
+      <c r="M17" s="17" t="s">
+        <v>836</v>
       </c>
       <c r="N17" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="O17" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>683</v>
-      </c>
       <c r="Q17" s="24" t="s">
-        <v>817</v>
+        <v>843</v>
       </c>
       <c r="S17" s="24" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="T17" s="24" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="U17" s="22" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="V17" s="24" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>485</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>403</v>
@@ -5223,55 +5223,55 @@
         <v>433</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L18" s="17" t="s">
         <v>623</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>626</v>
+      <c r="M18" s="17" t="s">
+        <v>836</v>
       </c>
       <c r="N18" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>690</v>
-      </c>
       <c r="Q18" s="24" t="s">
-        <v>799</v>
+        <v>844</v>
       </c>
       <c r="S18" s="24" t="s">
+        <v>718</v>
+      </c>
+      <c r="T18" s="24" t="s">
+        <v>719</v>
+      </c>
+      <c r="U18" s="22" t="s">
         <v>720</v>
       </c>
-      <c r="T18" s="24" t="s">
-        <v>721</v>
-      </c>
-      <c r="U18" s="22" t="s">
-        <v>722</v>
-      </c>
       <c r="V18" s="24" t="s">
+        <v>691</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="AA18" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="AA18" s="3" t="s">
+      <c r="AB18" s="3" t="s">
         <v>693</v>
-      </c>
-      <c r="AB18" s="3" t="s">
-        <v>694</v>
       </c>
     </row>
   </sheetData>

--- a/datamares/OLR/OLR_datamares_fisheries2.xlsx
+++ b/datamares/OLR/OLR_datamares_fisheries2.xlsx
@@ -2152,11 +2152,6 @@
     <t>Mycteroperca jordani</t>
   </si>
   <si>
-    <t>The project monitored detections of 5 tagged Gulf Grouper within Cabo Pulmo National Park.  For these 5 individuals, they were detected at the reefs of El Bajo and Los Morros, showing temporary residency at these locations.
-These data were collected by researchers with the Gulf of California Marine Program in partnership with Scripps Institution of Oceanography, Centro Para la Biodiversidad Marina y la Conservación A.C., The University of Texas Austin, California State University Northridge, and Texas A&amp;M University at Galveston.
-These data were collected by researchers with the Gulf of California Marine Program in partnership with Scripps Institution of Oceanography, Centro Para la Biodiversidad Marina y la Conservación A.C., The University of Texas Austin, California State University Northridge, and Texas A&amp;M University at Galveston.</t>
-  </si>
-  <si>
     <t>Fisheries Monitoring Project La Paz (Baja California Sur, Mexico)</t>
   </si>
   <si>
@@ -2216,9 +2211,6 @@
   </si>
   <si>
     <t>2015-03-30</t>
-  </si>
-  <si>
-    <t>The data described here have been embargoed until 2016-11-30. Inquiries should be directed to Jack Egerton (osp23e@bangor.ac.uk)</t>
   </si>
   <si>
     <t>Software used: Microsoft Excel and BioSonics acoustic software. Coordinate system: UTM WGS1984.</t>
@@ -2591,6 +2583,13 @@
   </si>
   <si>
     <t>Giron-Nava, Alfredo; Aburto-Oropeza, Octavio (2017): Global Fisheries Supply Index. In dataMares Project: Fisheries. UC San Diego Library Digital Collections.</t>
+  </si>
+  <si>
+    <t>The project monitored detections of 5 tagged Gulf Grouper within Cabo Pulmo National Park.  For these 5 individuals, they were detected at the reefs of El Bajo and Los Morros, showing temporary residency at these locations.
+These data were collected by researchers with the Gulf of California Marine Program in partnership with Scripps Institution of Oceanography, Centro Para la Biodiversidad Marina y la Conservación A.C., The University of Texas Austin, California State University Northridge, and Texas A&amp;M University at Galveston.</t>
+  </si>
+  <si>
+    <t>The data described here have been embargoed until 2017-07-01. Inquiries should be directed to Jack Egerton (osp23e@bangor.ac.uk)</t>
   </si>
 </sst>
 </file>
@@ -3985,8 +3984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4140,7 +4139,7 @@
         <v>623</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>630</v>
@@ -4152,7 +4151,7 @@
         <v>632</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="R2" s="27"/>
       <c r="S2" s="22" t="s">
@@ -4168,11 +4167,11 @@
         <v>640</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="X2" s="17"/>
       <c r="Y2" s="17" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="Z2" s="17"/>
       <c r="AA2" s="19" t="s">
@@ -4205,7 +4204,7 @@
         <v>433</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I3" s="17" t="s">
         <v>637</v>
@@ -4220,7 +4219,7 @@
         <v>623</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="N3" s="17" t="s">
         <v>700</v>
@@ -4232,10 +4231,10 @@
         <v>702</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>708</v>
+        <v>843</v>
       </c>
       <c r="T3" s="23" t="s">
         <v>703</v>
@@ -4251,7 +4250,7 @@
         <v>707</v>
       </c>
       <c r="Y3" s="17" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="Z3" s="17"/>
       <c r="AA3" s="17" t="s">
@@ -4278,54 +4277,54 @@
         <v>433</v>
       </c>
       <c r="H4" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="I4" s="17" t="s">
         <v>723</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="J4" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="K4" s="17" t="s">
         <v>724</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>724</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>725</v>
       </c>
       <c r="L4" s="17" t="s">
         <v>623</v>
       </c>
       <c r="M4" s="17"/>
       <c r="N4" s="17" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="O4" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="P4" s="17" t="s">
         <v>726</v>
-      </c>
-      <c r="P4" s="17" t="s">
-        <v>727</v>
       </c>
       <c r="Q4" s="22"/>
       <c r="R4" s="27" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="S4" s="22" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="T4" s="23" t="s">
+        <v>844</v>
+      </c>
+      <c r="U4" s="22" t="s">
+        <v>727</v>
+      </c>
+      <c r="V4" s="22" t="s">
         <v>728</v>
-      </c>
-      <c r="U4" s="22" t="s">
-        <v>729</v>
-      </c>
-      <c r="V4" s="22" t="s">
-        <v>730</v>
       </c>
       <c r="W4" s="17"/>
       <c r="X4" s="18"/>
       <c r="Y4" s="17" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="Z4" s="17"/>
       <c r="AA4" s="19" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AB4" s="19"/>
       <c r="AC4" s="18"/>
@@ -4353,7 +4352,7 @@
         <v>433</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>629</v>
@@ -4366,7 +4365,7 @@
         <v>623</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="N5" s="17" t="s">
         <v>643</v>
@@ -4378,7 +4377,7 @@
         <v>645</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="S5" s="22" t="s">
         <v>641</v>
@@ -4397,10 +4396,10 @@
       </c>
       <c r="X5" s="17"/>
       <c r="Y5" s="17" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="Z5" s="17" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="AA5" s="17"/>
       <c r="AB5" s="17"/>
@@ -4443,7 +4442,7 @@
         <v>623</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="N6" s="17" t="s">
         <v>651</v>
@@ -4455,11 +4454,11 @@
         <v>653</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="R6" s="27"/>
       <c r="S6" s="22" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="T6" s="22" t="s">
         <v>698</v>
@@ -4468,14 +4467,14 @@
         <v>704</v>
       </c>
       <c r="V6" s="25" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="W6" s="17" t="s">
         <v>648</v>
       </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="17" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="Z6" s="17"/>
       <c r="AA6" s="17"/>
@@ -4518,7 +4517,7 @@
         <v>623</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>658</v>
@@ -4530,7 +4529,7 @@
         <v>624</v>
       </c>
       <c r="Q7" s="24" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="R7" s="27"/>
       <c r="S7" s="24" t="s">
@@ -4547,10 +4546,10 @@
         <v>657</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
@@ -4589,16 +4588,16 @@
         <v>666</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="L8" s="17" t="s">
         <v>623</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>667</v>
@@ -4607,27 +4606,27 @@
         <v>668</v>
       </c>
       <c r="Q8" s="24" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="R8" s="27"/>
       <c r="S8" s="24" t="s">
         <v>664</v>
       </c>
       <c r="T8" s="24" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="U8" s="22" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="V8" s="24" t="s">
         <v>669</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="X8" s="3"/>
       <c r="Y8" s="3" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3" t="s">
@@ -4640,7 +4639,7 @@
     </row>
     <row r="9" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>485</v>
@@ -4652,7 +4651,7 @@
         <v>433</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>637</v>
@@ -4661,45 +4660,45 @@
         <v>623</v>
       </c>
       <c r="N9" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="Q9" s="24" t="s">
+        <v>724</v>
+      </c>
+      <c r="R9" s="27" t="s">
+        <v>797</v>
+      </c>
+      <c r="S9" s="24" t="s">
         <v>734</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="T9" s="24" t="s">
         <v>735</v>
       </c>
-      <c r="Q9" s="24" t="s">
-        <v>725</v>
-      </c>
-      <c r="R9" s="27" t="s">
-        <v>799</v>
-      </c>
-      <c r="S9" s="24" t="s">
+      <c r="U9" s="24" t="s">
+        <v>784</v>
+      </c>
+      <c r="V9" s="24" t="s">
         <v>736</v>
       </c>
-      <c r="T9" s="24" t="s">
-        <v>737</v>
-      </c>
-      <c r="U9" s="24" t="s">
+      <c r="W9" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="X9" s="17" t="s">
         <v>786</v>
       </c>
-      <c r="V9" s="24" t="s">
-        <v>738</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="X9" s="17" t="s">
-        <v>788</v>
-      </c>
       <c r="Y9" s="3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>485</v>
@@ -4714,7 +4713,7 @@
         <v>671</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J10" s="17" t="s">
         <v>634</v>
@@ -4735,31 +4734,31 @@
         <v>674</v>
       </c>
       <c r="R10" s="27" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="S10" s="24" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="T10" s="24" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="U10" s="22" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="V10" s="24" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="AC10" s="18"/>
     </row>
     <row r="11" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>485</v>
@@ -4771,10 +4770,10 @@
         <v>433</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J11" s="17" t="s">
         <v>634</v>
@@ -4787,40 +4786,40 @@
       </c>
       <c r="M11" s="17"/>
       <c r="N11" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="R11" s="27" t="s">
+        <v>803</v>
+      </c>
+      <c r="S11" s="24" t="s">
         <v>756</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="T11" s="24" t="s">
         <v>757</v>
       </c>
-      <c r="R11" s="27" t="s">
-        <v>805</v>
-      </c>
-      <c r="S11" s="24" t="s">
+      <c r="U11" s="22" t="s">
         <v>758</v>
       </c>
-      <c r="T11" s="24" t="s">
+      <c r="V11" s="24" t="s">
         <v>759</v>
       </c>
-      <c r="U11" s="22" t="s">
-        <v>760</v>
-      </c>
-      <c r="V11" s="24" t="s">
-        <v>761</v>
-      </c>
       <c r="W11" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="AC11" s="3"/>
     </row>
     <row r="12" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>485</v>
@@ -4832,13 +4831,13 @@
         <v>433</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="K12" s="17" t="s">
         <v>650</v>
@@ -4848,40 +4847,40 @@
       </c>
       <c r="M12" s="17"/>
       <c r="N12" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="R12" s="27" t="s">
+        <v>804</v>
+      </c>
+      <c r="S12" s="24" t="s">
+        <v>741</v>
+      </c>
+      <c r="T12" s="24" t="s">
+        <v>782</v>
+      </c>
+      <c r="U12" s="22" t="s">
+        <v>758</v>
+      </c>
+      <c r="V12" s="24" t="s">
         <v>765</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="W12" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="AA12" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="R12" s="27" t="s">
-        <v>806</v>
-      </c>
-      <c r="S12" s="24" t="s">
-        <v>743</v>
-      </c>
-      <c r="T12" s="24" t="s">
-        <v>784</v>
-      </c>
-      <c r="U12" s="22" t="s">
-        <v>760</v>
-      </c>
-      <c r="V12" s="24" t="s">
+      <c r="AB12" s="3" t="s">
         <v>767</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4898,13 +4897,13 @@
         <v>433</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>650</v>
@@ -4913,34 +4912,34 @@
         <v>623</v>
       </c>
       <c r="N13" s="20" t="s">
+        <v>770</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="P13" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="R13" s="27" t="s">
+        <v>800</v>
+      </c>
+      <c r="S13" s="24" t="s">
+        <v>741</v>
+      </c>
+      <c r="T13" s="24" t="s">
+        <v>782</v>
+      </c>
+      <c r="U13" s="22" t="s">
+        <v>758</v>
+      </c>
+      <c r="V13" s="24" t="s">
         <v>773</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="W13" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="R13" s="27" t="s">
-        <v>802</v>
-      </c>
-      <c r="S13" s="24" t="s">
-        <v>743</v>
-      </c>
-      <c r="T13" s="24" t="s">
-        <v>784</v>
-      </c>
-      <c r="U13" s="22" t="s">
-        <v>760</v>
-      </c>
-      <c r="V13" s="24" t="s">
-        <v>775</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>776</v>
-      </c>
       <c r="Y13" s="3" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4957,10 +4956,10 @@
         <v>433</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>634</v>
@@ -4969,39 +4968,39 @@
         <v>623</v>
       </c>
       <c r="N14" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="R14" s="27" t="s">
+        <v>805</v>
+      </c>
+      <c r="S14" s="24" t="s">
+        <v>741</v>
+      </c>
+      <c r="T14" s="24" t="s">
+        <v>757</v>
+      </c>
+      <c r="U14" s="22" t="s">
+        <v>758</v>
+      </c>
+      <c r="V14" s="24" t="s">
         <v>780</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="R14" s="27" t="s">
-        <v>807</v>
-      </c>
-      <c r="S14" s="24" t="s">
-        <v>743</v>
-      </c>
-      <c r="T14" s="24" t="s">
-        <v>759</v>
-      </c>
-      <c r="U14" s="22" t="s">
-        <v>760</v>
-      </c>
-      <c r="V14" s="24" t="s">
-        <v>782</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>783</v>
-      </c>
       <c r="Y14" s="3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>485</v>
@@ -5013,51 +5012,51 @@
         <v>433</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="L15" s="17" t="s">
         <v>623</v>
       </c>
       <c r="N15" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="R15" s="27" t="s">
+        <v>806</v>
+      </c>
+      <c r="S15" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="T15" s="24" t="s">
+        <v>782</v>
+      </c>
+      <c r="V15" s="24" t="s">
         <v>742</v>
       </c>
-      <c r="R15" s="27" t="s">
-        <v>808</v>
-      </c>
-      <c r="S15" s="24" t="s">
-        <v>743</v>
-      </c>
-      <c r="T15" s="24" t="s">
-        <v>784</v>
-      </c>
-      <c r="V15" s="24" t="s">
-        <v>744</v>
-      </c>
       <c r="W15" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>485</v>
@@ -5072,13 +5071,13 @@
         <v>433</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="17" t="s">
@@ -5086,49 +5085,49 @@
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="P16" s="3" t="s">
         <v>746</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>748</v>
       </c>
       <c r="Q16" s="24"/>
       <c r="R16" s="27" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="S16" s="24" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="T16" s="24" t="s">
+        <v>783</v>
+      </c>
+      <c r="U16" s="24" t="s">
         <v>785</v>
       </c>
-      <c r="U16" s="24" t="s">
-        <v>787</v>
-      </c>
       <c r="V16" s="24" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="X16" s="3"/>
       <c r="Y16" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="AB16" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="AC16" s="3"/>
     </row>
     <row r="17" spans="1:28" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>485</v>
@@ -5152,7 +5151,7 @@
         <v>678</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>626</v>
@@ -5164,7 +5163,7 @@
         <v>623</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>680</v>
@@ -5176,33 +5175,33 @@
         <v>682</v>
       </c>
       <c r="Q17" s="24" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="S17" s="24" t="s">
         <v>679</v>
       </c>
       <c r="T17" s="24" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="U17" s="22" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="V17" s="24" t="s">
         <v>684</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>485</v>
@@ -5235,7 +5234,7 @@
         <v>623</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>687</v>
@@ -5247,25 +5246,25 @@
         <v>689</v>
       </c>
       <c r="Q18" s="24" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="S18" s="24" t="s">
+        <v>717</v>
+      </c>
+      <c r="T18" s="24" t="s">
         <v>718</v>
       </c>
-      <c r="T18" s="24" t="s">
+      <c r="U18" s="22" t="s">
         <v>719</v>
-      </c>
-      <c r="U18" s="22" t="s">
-        <v>720</v>
       </c>
       <c r="V18" s="24" t="s">
         <v>691</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>692</v>
